--- a/engr/power.xlsx
+++ b/engr/power.xlsx
@@ -1,22 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WSU SMART REA\design.git\engr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="303" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="563"/>
   </bookViews>
   <sheets>
-    <sheet name="Consumption" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="PV system" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Consumption" sheetId="1" r:id="rId1"/>
+    <sheet name="PV system" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Patrick O'Keeffe</author>
+  </authors>
+  <commentList>
+    <comment ref="H13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Patrick O'Keeffe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Assuming vertical wind speed is normally distributed and deadband multiplier is 0.85</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
   <si>
     <t>Running power</t>
   </si>
@@ -318,7 +356,7 @@
     <t>Charge controller min. amperage</t>
   </si>
   <si>
-    <t>Amps in </t>
+    <t>Amps in</t>
   </si>
   <si>
     <t>80%</t>
@@ -346,7 +384,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">http://rimstar.org/renewnrg/sizing_select_batteries_for_off_grid_solar_system.htm</t>
+      <t>http://rimstar.org/renewnrg/sizing_select_batteries_for_off_grid_solar_system.htm</t>
     </r>
   </si>
   <si>
@@ -360,7 +398,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">http://pdf.wholesalesolar.com/Download%20folder/System_Worksheet.pdf</t>
+      <t>http://pdf.wholesalesolar.com/Download%20folder/System_Worksheet.pdf</t>
     </r>
   </si>
   <si>
@@ -374,7 +412,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">http://rimstar.org/renewnrg/solar_voltage_drop_table_calculator_wire_sizing_for_dc.htm</t>
+      <t>http://rimstar.org/renewnrg/solar_voltage_drop_table_calculator_wire_sizing_for_dc.htm</t>
     </r>
   </si>
   <si>
@@ -388,7 +426,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">http://pvwatts.nrel.gov/pvwatts.php</t>
+      <t>http://pvwatts.nrel.gov/pvwatts.php</t>
     </r>
   </si>
   <si>
@@ -402,7 +440,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">http://www.ecy.wa.gov/climatechange/maps/solar/solar_state.pdf</t>
+      <t>http://www.ecy.wa.gov/climatechange/maps/solar/solar_state.pdf</t>
     </r>
   </si>
   <si>
@@ -416,22 +454,22 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">http://www.nrel.gov/gis/images/map_pv_national_hi-res_200.jpg</t>
+      <t>http://www.nrel.gov/gis/images/map_pv_national_hi-res_200.jpg</t>
     </r>
+  </si>
+  <si>
+    <t>Run time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="0%"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -440,20 +478,9 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -463,6 +490,19 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -480,221 +520,193 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -753,993 +765,1314 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="5.52551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.5969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="6.29081632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.2755102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.75"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="23.7109375"/>
+    <col min="2" max="2" width="13.7109375"/>
+    <col min="3" max="3" width="47.28515625"/>
+    <col min="4" max="5" width="5.5703125" style="3"/>
+    <col min="6" max="6" width="6.28515625" style="4"/>
+    <col min="7" max="7" width="10.28515625" style="3"/>
+    <col min="8" max="8" width="9.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="3"/>
+    <col min="10" max="10" width="13.5703125"/>
+    <col min="11" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="n">
-        <f aca="false">SUM(H5:H33)</f>
-        <v>92.652</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G2" s="3" t="s">
+      <c r="I1" s="3">
+        <f>SUM(I5:I34)</f>
+        <v>73.356000000000009</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">SUM(H5:H11)</f>
-        <v>3.132</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="I2" s="3">
+        <f>SUM(I5:I11)</f>
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="4">
         <v>0.01</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">E5*F5</f>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G11" si="0">E5*F5</f>
         <v>0.12</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">G5*D5</f>
+      <c r="H5" s="29">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30">
+        <f>G5*D5*H5</f>
         <v>0.12</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="J5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">E6*F6</f>
-        <v>0.516</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">G6*D6</f>
-        <v>0.516</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="F6" s="4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H6" s="29">
+        <v>1</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="shared" ref="I6:I17" si="1">G6*D6*H6</f>
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">E7*F7</f>
+      <c r="F7" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">G7*D7</f>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="3">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="4">
         <v>0.01</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <f aca="false">E8*F8</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">G8*D8</f>
+      <c r="H8" s="29">
+        <v>1</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="n">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="4">
         <v>0.01</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <f aca="false">E9*F9</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">G9*D9</f>
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+      <c r="I9" s="30">
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="n">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>12</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="4">
         <v>0.11</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <f aca="false">E10*F10</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">G10*D10</f>
+      <c r="H10" s="29">
+        <v>1</v>
+      </c>
+      <c r="I10" s="30">
+        <f t="shared" si="1"/>
         <v>1.32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>12</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <f aca="false">E11*F11</f>
-        <v>0.036</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">G11*D11</f>
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="F11" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1</v>
+      </c>
+      <c r="I11" s="30">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="3">
         <v>12</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <f aca="false">E13*F13</f>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <f>E13*F13</f>
         <v>12</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">G13*D13</f>
-        <v>24</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="H13" s="29">
+        <f>(1-0.6)/2</f>
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="J13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="3">
         <v>10.6</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <f aca="false">E14*F14</f>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <f>E14*F14</f>
         <v>10.6</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">G14*D14</f>
+      <c r="H14" s="29">
+        <f t="shared" ref="H14:H15" si="2">(1-0.6)/2</f>
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <f>E15*F15</f>
+        <v>0.06</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="30">
+        <f t="shared" si="1"/>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="n">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>12</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F16" s="4">
         <v>0.25</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <f aca="false">E15*F15</f>
+      <c r="G16" s="3">
+        <f>E16*F16</f>
         <v>3</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false">G15*D15</f>
+      <c r="H16" s="29">
+        <v>1</v>
+      </c>
+      <c r="I16" s="30">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="n">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
         <v>12</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F17" s="4">
         <v>5.2</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <f aca="false">E16*F16</f>
-        <v>62.4</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">G16*D16</f>
-        <v>62.4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <f aca="false">E17*F17</f>
-        <v>0.06</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">G17*D17</f>
-        <v>0.12</v>
+      <c r="G17" s="3">
+        <f>E17*F17</f>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1</v>
+      </c>
+      <c r="I17" s="30">
+        <f t="shared" si="1"/>
+        <v>62.400000000000006</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1.5" right="1.5" top="2.2375" bottom="2.2375" header="2" footer="2"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="1.5" right="1.5" top="2.2374999999999998" bottom="2.2374999999999998" header="2" footer="2"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.44387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.25"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.61224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.86224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.18877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="26.28515625"/>
+    <col min="2" max="2" width="6"/>
+    <col min="3" max="3" width="9"/>
+    <col min="4" max="4" width="4.42578125"/>
+    <col min="5" max="5" width="11.28515625"/>
+    <col min="6" max="6" width="8.5703125"/>
+    <col min="7" max="7" width="9.85546875"/>
+    <col min="8" max="8" width="8.140625"/>
+    <col min="9" max="9" width="13.28515625"/>
+    <col min="10" max="10" width="12.7109375"/>
+    <col min="11" max="11" width="6.85546875"/>
+    <col min="12" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <f aca="false">Consumption!H1</f>
-        <v>92.652</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="3">
+        <f>Consumption!I1</f>
+        <v>73.356000000000009</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="n">
-        <f aca="false">B1/B13</f>
-        <v>7.721</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="3">
+        <f>B1/B13</f>
+        <v>6.1130000000000004</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="J2" s="7" t="s">
+      <c r="G2" s="11"/>
+      <c r="J2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <f aca="false">Consumption!H2</f>
-        <v>3.132</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="B3" s="3">
+        <f>Consumption!I2</f>
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="n">
-        <f aca="false">B3/B13</f>
-        <v>0.261</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <f>B3/B13</f>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="15">
         <v>80</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="3">
         <v>26</v>
       </c>
-      <c r="G4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="3">
         <v>4</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="3">
         <v>2</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="14" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E5" s="15">
         <v>70</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="3">
         <v>21.2</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="16">
         <v>1.04</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="15">
         <v>60</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="3">
         <v>15.6</v>
       </c>
-      <c r="G6" s="15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="G6" s="16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="17">
         <v>24</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="15">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="15" t="n">
+      <c r="G7" s="16">
         <v>1.19</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="18" t="n">
-        <f aca="false">B7*B1+(24-B7)*B3</f>
-        <v>2223.648</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="19">
+        <f>B7*B1+(24-B7)*B3</f>
+        <v>1760.5440000000003</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="14" t="n">
+      <c r="D8" s="18"/>
+      <c r="E8" s="15">
         <v>40</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G8" s="15" t="n">
+      <c r="F8" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G8" s="16">
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="14" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E9" s="15">
         <v>30</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="G9" s="15" t="n">
+      <c r="F9" s="3">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G9" s="16">
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="19" t="n">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E10" s="20">
         <v>20</v>
       </c>
-      <c r="F10" s="20" t="n">
+      <c r="F10" s="21">
         <v>-6.7</v>
       </c>
-      <c r="G10" s="21" t="n">
+      <c r="G10" s="22">
         <v>1.59</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="22" t="n">
+      <c r="B13" s="23">
         <v>12</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="24" t="n">
+      <c r="B14" s="24">
         <v>3</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="17">
         <v>6</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="25" t="n">
+      <c r="B15" s="25">
         <v>0.5</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="0" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="17">
         <v>524</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="24" t="n">
+      <c r="B16" s="24">
         <v>1.59</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="0" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="17">
         <v>4</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="26" t="n">
-        <f aca="false">(B8*B14*B16)/(B13*B15)</f>
-        <v>1767.80016</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="26">
+        <f>(B8*B14*B16)/(B13*B15)</f>
+        <v>1399.6324800000004</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <f aca="false">F15*F16*(F14/B13)</f>
+      <c r="F17" s="3">
+        <f>F15*F16*(F14/B13)</f>
         <v>1048</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="0" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="27" t="n">
-        <f aca="false">(B17/F15)*(B13/F14)</f>
-        <v>6.74732885496183</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="F18" s="27">
+        <f>(B17/F15)*(B13/F14)</f>
+        <v>5.3421087022900782</v>
+      </c>
+      <c r="G18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="24" t="n">
+      <c r="B21" s="24">
         <v>4</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="27" t="n">
-        <f aca="false">$B$8/B21</f>
-        <v>555.912</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="B22" s="27">
+        <f>$B$8/B21</f>
+        <v>440.13600000000008</v>
+      </c>
+      <c r="C22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="16" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="G22" s="0" t="s">
+      <c r="F22" s="17">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <f aca="false">CEILING(B22/F24,1)</f>
+      <c r="B23" s="3">
+        <f>CEILING(B22/F24,1)</f>
         <v>2</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="16" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="F23" s="17">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="G23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="27" t="n">
-        <f aca="false">B23*F22</f>
-        <v>17.06</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="B24" s="27">
+        <f>B23*F22</f>
+        <v>17.059999999999999</v>
+      </c>
+      <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="1" t="n">
-        <f aca="false">ROUND(F23*F22, 0)</f>
+      <c r="F24" s="3">
+        <f>ROUND(F23*F22, 0)</f>
         <v>305</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="24" t="n">
+      <c r="B28" s="24">
         <v>2</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="27" t="n">
-        <f aca="false">B31/0.8</f>
-        <v>42.65</v>
-      </c>
-      <c r="F28" s="0" t="s">
+      <c r="E28" s="27">
+        <f>B31/0.8</f>
+        <v>31.987499999999994</v>
+      </c>
+      <c r="F28" t="s">
         <v>100</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="27" t="n">
-        <f aca="false">$B$8/B28</f>
-        <v>1111.824</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="B29" s="27">
+        <f>$B$8/B28</f>
+        <v>880.27200000000016</v>
+      </c>
+      <c r="C29" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="27" t="n">
-        <f aca="false">B34/0.8</f>
+      <c r="E29" s="27">
+        <f>B34/0.8</f>
         <v>0</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="1" t="n">
-        <f aca="false">CEILING(B29/F24,1)</f>
-        <v>4</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="B30" s="3">
+        <f>CEILING(B29/F24,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="27" t="n">
-        <f aca="false">B30*F22</f>
-        <v>34.12</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="B31" s="27">
+        <f>B30*F22</f>
+        <v>25.589999999999996</v>
+      </c>
+      <c r="C31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="1" t="n">
-        <f aca="false">F23</f>
-        <v>35.77</v>
-      </c>
-      <c r="C36" s="0" t="s">
+      <c r="B36" s="3">
+        <f>F23</f>
+        <v>35.770000000000003</v>
+      </c>
+      <c r="C36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1758,10 +2091,8 @@
     <hyperlink ref="A44" r:id="rId5" display="http://www.ecy.wa.gov/climatechange/maps/solar/solar_state.pdf"/>
     <hyperlink ref="A45" r:id="rId6" display="http://www.nrel.gov/gis/images/map_pv_national_hi-res_200.jpg"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1.5" right="1.5" top="2.2375" bottom="2.2375" header="2" footer="2"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="1.5" right="1.5" top="2.2374999999999998" bottom="2.2374999999999998" header="2" footer="2"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/engr/power.xlsx
+++ b/engr/power.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="563"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="563" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,40 @@
           </rPr>
           <t xml:space="preserve">
 Assuming vertical wind speed is normally distributed and deadband multiplier is 0.85</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Patrick O'Keeffe</author>
+  </authors>
+  <commentList>
+    <comment ref="F14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Patrick O'Keeffe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Choices: 6, 12</t>
         </r>
       </text>
     </comment>
@@ -1054,7 +1088,7 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1522,14 +1556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1857,8 +1891,8 @@
         <v>85</v>
       </c>
       <c r="F18" s="27">
-        <f>(B17/F15)*(B13/F14)</f>
-        <v>5.3421087022900782</v>
+        <f>IF(F14&lt;12, EVEN((B17/F15)*(B13/F14)), CEILING((B17/F15)*(B13/F14),1))</f>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
         <v>81</v>
@@ -2096,5 +2130,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>